--- a/00_ProjectManagement/WeeklyMeetingManagement.xlsx
+++ b/00_ProjectManagement/WeeklyMeetingManagement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FIORDALISO\Desktop\business\20190601_第4回議事\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fecon\Desktop\起業検討\forAnotherStart\forAnotherStart\00_ProjectManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF78B47-001C-463E-9826-8C0C89D6EF87}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5953EFD9-A449-4CB1-9D12-061866FB29D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA6488D4-8EEF-45B5-B610-A749BA160C5C}"/>
+    <workbookView xWindow="0" yWindow="1230" windowWidth="13680" windowHeight="11400" firstSheet="1" activeTab="4" xr2:uid="{BA6488D4-8EEF-45B5-B610-A749BA160C5C}"/>
   </bookViews>
   <sheets>
     <sheet name="【Schedule】Schedule_Summary" sheetId="3" r:id="rId1"/>
@@ -137,8 +137,83 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>福田純也</author>
+  </authors>
+  <commentList>
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{78E0B9AF-2B7E-4280-95DB-7BD240593BDC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>福田純也:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+今のところ、年内にはリリースしたいと思っている（かん君）
+仮想通貨交換業者登録をする必要がある場合、リリースされても、左記の
+登録で時間がかかる可能性がある。登録が必要があるかは調査すべきではあるものの、そのような開発以外のところでかかる時間が懸念されるので、来年度まで市場に出るためには、リリースタイミングをなるはやにしたい。
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>福田純也</author>
+  </authors>
+  <commentList>
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{6E699565-76D5-4530-BB8F-44CD307D6576}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>福田純也:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+自分が書く</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="91">
   <si>
     <t>Month</t>
     <phoneticPr fontId="2"/>
@@ -637,6 +712,73 @@
   </si>
   <si>
     <t>内部分裂防止課題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仮想通貨交換業者に登録する必要があるかの調査</t>
+    <rPh sb="0" eb="2">
+      <t>かそう</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>つうか</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>こうかん</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ぎょうしゃ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>とうろく</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ひつよう</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ちょうさ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アプリを市場に出す際にあたって必要な規制、条件などを調べる。</t>
+    <rPh sb="4" eb="6">
+      <t>しじょう</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>だ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>さい</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ひつよう</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>きせい</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>じょうけん</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>しら</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法人化するために必要な条件などを調べる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/12
+kang なるはやでシェアの割合を決めたい
+2019/6/12
+F,S　</t>
+    <rPh sb="24" eb="26">
+      <t>わりあい</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>き</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,25 +786,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -714,6 +856,35 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1048,7 +1219,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1190,9 +1361,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1237,7 +1417,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="【Schedule】Master_Schedule!$C$5:$M$10" spid="_x0000_s3129"/>
+                  <a14:cameraTool cellRange="【Schedule】Master_Schedule!$C$5:$M$10" spid="_x0000_s3145"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1302,7 +1482,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="【Schedule】起業検討フェーズ!$B$6:$J$21" spid="_x0000_s3130"/>
+                  <a14:cameraTool cellRange="【Schedule】起業検討フェーズ!$B$6:$J$21" spid="_x0000_s3146"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1621,13 +1801,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>266704</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>45719</xdr:colOff>
+      <xdr:colOff>312423</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
@@ -1644,8 +1824,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="1247776"/>
-          <a:ext cx="45719" cy="800100"/>
+          <a:off x="1638304" y="1171576"/>
+          <a:ext cx="45719" cy="757238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1985,14 +2165,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>712133</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>116821</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>757852</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>162540</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2009,8 +2189,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3302933" y="3348317"/>
-          <a:ext cx="45719" cy="8138833"/>
+          <a:off x="5755621" y="3262592"/>
+          <a:ext cx="45719" cy="8062633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2492,75 +2672,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>761998</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>409575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="화살표: 오각형 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0962D766-729F-4474-9647-039C18AFAB9D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3352798" y="5076825"/>
-          <a:ext cx="1524001" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-            </a:rPr>
-            <a:t>機能検討</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1050">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>742951</xdr:colOff>
       <xdr:row>17</xdr:row>
@@ -2697,6 +2808,78 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>138110</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>138111</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>404813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="화살표: 오각형 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0962D766-729F-4474-9647-039C18AFAB9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5776910" y="4986338"/>
+          <a:ext cx="1524001" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>機能検討</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1050">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2725,7 +2908,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$T$6:$U$9" spid="_x0000_s6151"/>
+                  <a14:cameraTool cellRange="$T$6:$U$9" spid="_x0000_s6160"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2766,7 +2949,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3064,24 +3247,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F62F287-69F1-401F-A386-B49ECCA9E99F}">
   <dimension ref="B3:C13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <sheetData>
-    <row r="3" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" ht="18" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="2:3" ht="3.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" ht="3.95" customHeight="1" thickTop="1"/>
+    <row r="12" spans="2:3" ht="18" thickBot="1">
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="2:3" ht="3.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:3" ht="3.95" customHeight="1" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3095,23 +3278,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D99020-31E2-4549-BB5B-02BB32777B4F}">
   <dimension ref="B3:M19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" ht="15.4" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="2:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="15.75" thickTop="1" thickBot="1"/>
+    <row r="5" spans="2:13">
       <c r="C5" s="41">
         <v>2019</v>
       </c>
@@ -3128,7 +3311,7 @@
       <c r="L5" s="42"/>
       <c r="M5" s="43"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" ht="15.4" thickBot="1">
       <c r="C6" s="3">
         <v>6</v>
       </c>
@@ -3163,7 +3346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13">
       <c r="C7" s="8"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -3176,7 +3359,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13">
       <c r="C8" s="10"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -3189,7 +3372,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13">
       <c r="C9" s="10"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -3202,7 +3385,7 @@
       <c r="L9" s="7"/>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" ht="15.4" thickBot="1">
       <c r="C10" s="12"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -3215,14 +3398,14 @@
       <c r="L10" s="13"/>
       <c r="M10" s="14"/>
     </row>
-    <row r="18" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" ht="15.4" thickBot="1">
       <c r="B18" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
     </row>
-    <row r="19" spans="2:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:4" ht="15.4" thickTop="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C5:I5"/>
@@ -3239,9 +3422,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B29966-129E-418A-AD6F-D27B591840DF}">
   <dimension ref="B4:AK28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="V11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ22" sqref="AJ22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.625" style="16" customWidth="1"/>
     <col min="2" max="2" width="21.375" style="16" bestFit="1" customWidth="1"/>
@@ -3249,7 +3434,7 @@
     <col min="37" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:37">
       <c r="C4" s="16" t="s">
         <v>6</v>
       </c>
@@ -3257,7 +3442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:37">
       <c r="B6" s="17" t="s">
         <v>0</v>
       </c>
@@ -3306,7 +3491,7 @@
       <c r="AI6" s="19"/>
       <c r="AJ6" s="19"/>
     </row>
-    <row r="7" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:37">
       <c r="B7" s="17" t="s">
         <v>1</v>
       </c>
@@ -3379,7 +3564,7 @@
       </c>
       <c r="AJ7" s="18"/>
     </row>
-    <row r="8" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:37">
       <c r="B8" s="17" t="s">
         <v>4</v>
       </c>
@@ -3486,10 +3671,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:37">
       <c r="B9" s="20"/>
     </row>
-    <row r="10" spans="2:37" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:37" ht="34.5" customHeight="1">
       <c r="B10" s="23" t="s">
         <v>15</v>
       </c>
@@ -3531,7 +3716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:37" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:37" ht="34.5" customHeight="1">
       <c r="B11" s="23" t="s">
         <v>16</v>
       </c>
@@ -3573,7 +3758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:37" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:37" ht="34.5" customHeight="1">
       <c r="B12" s="23" t="s">
         <v>17</v>
       </c>
@@ -3615,10 +3800,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:37" ht="15.75" customHeight="1">
       <c r="B13" s="20"/>
     </row>
-    <row r="14" spans="2:37" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:37" ht="34.5" customHeight="1">
       <c r="B14" s="23" t="s">
         <v>19</v>
       </c>
@@ -3660,7 +3845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:37" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:37" ht="34.5" customHeight="1">
       <c r="B15" s="24" t="s">
         <v>10</v>
       </c>
@@ -3702,7 +3887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:37" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:37" ht="34.5" customHeight="1">
       <c r="B16" s="24" t="s">
         <v>5</v>
       </c>
@@ -3744,7 +3929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:37" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:37" ht="34.5" customHeight="1">
       <c r="B17" s="24" t="s">
         <v>11</v>
       </c>
@@ -3786,7 +3971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:37" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:37" ht="34.5" customHeight="1">
       <c r="B18" s="24" t="s">
         <v>9</v>
       </c>
@@ -3828,7 +4013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:37" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:37" ht="34.5" customHeight="1">
       <c r="B19" s="24" t="s">
         <v>12</v>
       </c>
@@ -3870,7 +4055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:37" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:37" ht="34.5" customHeight="1">
       <c r="B20" s="24" t="s">
         <v>13</v>
       </c>
@@ -3912,7 +4097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:37" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:37" ht="34.5" customHeight="1">
       <c r="B21" s="24" t="s">
         <v>14</v>
       </c>
@@ -3954,21 +4139,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:37" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:37" ht="34.5" customHeight="1">
       <c r="AK22" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:37" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:37" ht="34.5" customHeight="1">
       <c r="AK23" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:37" ht="34.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:37" ht="34.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:37" ht="34.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:37" ht="34.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:37" ht="34.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:37" ht="34.5" customHeight="1"/>
+    <row r="25" spans="2:37" ht="34.5" customHeight="1"/>
+    <row r="26" spans="2:37" ht="34.5" customHeight="1"/>
+    <row r="27" spans="2:37" ht="34.5" customHeight="1"/>
+    <row r="28" spans="2:37" ht="34.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3982,9 +4167,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB23BA5-67C9-47C9-B73E-4BCD5EEF1E81}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="83" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="16"/>
     <col min="2" max="2" width="46.25" style="16" bestFit="1" customWidth="1"/>
@@ -3993,16 +4180,16 @@
     <col min="5" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="16.5" customHeight="1"/>
+    <row r="3" spans="1:21" ht="15.4" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="3.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:21" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="3.95" customHeight="1" thickTop="1"/>
+    <row r="5" spans="1:21" ht="3.95" customHeight="1" thickBot="1"/>
+    <row r="6" spans="1:21">
       <c r="A6" s="35" t="s">
         <v>70</v>
       </c>
@@ -4023,7 +4210,7 @@
       </c>
       <c r="U6" s="45"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21">
       <c r="A7" s="30">
         <f t="shared" ref="A7:A49" si="0">ROW()-6</f>
         <v>1</v>
@@ -4045,7 +4232,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21">
       <c r="A8" s="30">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4065,7 +4252,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="15.4" thickBot="1">
       <c r="A9" s="30">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4085,7 +4272,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21">
       <c r="A10" s="30">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4099,7 +4286,7 @@
       </c>
       <c r="E10" s="28"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4113,7 +4300,7 @@
       </c>
       <c r="E11" s="28"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" s="30">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4127,7 +4314,7 @@
       </c>
       <c r="E12" s="28"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" s="30">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4141,7 +4328,7 @@
       </c>
       <c r="E13" s="28"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21">
       <c r="A14" s="30">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4155,7 +4342,7 @@
       <c r="D14" s="29"/>
       <c r="E14" s="28"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21">
       <c r="A15" s="30">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4169,7 +4356,7 @@
       </c>
       <c r="E15" s="28"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21">
       <c r="A16" s="30">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4183,7 +4370,7 @@
       <c r="D16" s="29"/>
       <c r="E16" s="28"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="30">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4199,7 +4386,7 @@
       </c>
       <c r="E17" s="28"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="30">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4213,7 +4400,7 @@
       <c r="D18" s="29"/>
       <c r="E18" s="28"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="30">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4227,7 +4414,7 @@
       </c>
       <c r="E19" s="28"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="30">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4241,7 +4428,7 @@
       <c r="D20" s="29"/>
       <c r="E20" s="28"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="30">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4255,7 +4442,7 @@
       </c>
       <c r="E21" s="28"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="30">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4269,7 +4456,7 @@
       </c>
       <c r="E22" s="28"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="30">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4283,7 +4470,7 @@
       </c>
       <c r="E23" s="28"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="30">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4297,7 +4484,7 @@
       </c>
       <c r="E24" s="28"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="30">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4311,7 +4498,7 @@
       </c>
       <c r="E25" s="28"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="30">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4325,7 +4512,7 @@
       </c>
       <c r="E26" s="28"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="30">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4339,7 +4526,7 @@
       </c>
       <c r="E27" s="28"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="30">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4353,7 +4540,7 @@
       </c>
       <c r="E28" s="28"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="30">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4367,7 +4554,7 @@
       </c>
       <c r="E29" s="28"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="30">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4381,7 +4568,7 @@
       </c>
       <c r="E30" s="28"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="30">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4395,7 +4582,7 @@
       </c>
       <c r="E31" s="28"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="30">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4409,7 +4596,7 @@
       <c r="D32" s="29"/>
       <c r="E32" s="28"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="30">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4423,7 +4610,7 @@
       </c>
       <c r="E33" s="28"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4437,37 +4624,49 @@
       </c>
       <c r="E34" s="28"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B35" s="29"/>
+      <c r="B35" s="47" t="s">
+        <v>87</v>
+      </c>
       <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
+      <c r="D35" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="E35" s="28"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="30">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B36" s="29"/>
+      <c r="B36" s="48" t="s">
+        <v>88</v>
+      </c>
       <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
+      <c r="D36" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="E36" s="28"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="30">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B37" s="29"/>
+      <c r="B37" s="48" t="s">
+        <v>89</v>
+      </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="D37" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="E37" s="28"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="30">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4477,7 +4676,7 @@
       <c r="D38" s="29"/>
       <c r="E38" s="28"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" s="30">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4487,7 +4686,7 @@
       <c r="D39" s="29"/>
       <c r="E39" s="28"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" s="30">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4497,7 +4696,7 @@
       <c r="D40" s="29"/>
       <c r="E40" s="28"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" s="30">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4507,7 +4706,7 @@
       <c r="D41" s="29"/>
       <c r="E41" s="28"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="30">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4517,7 +4716,7 @@
       <c r="D42" s="29"/>
       <c r="E42" s="28"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="30">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4527,7 +4726,7 @@
       <c r="D43" s="29"/>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="A44" s="30">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4537,7 +4736,7 @@
       <c r="D44" s="29"/>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="A45" s="30">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4547,7 +4746,7 @@
       <c r="D45" s="29"/>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="A46" s="30">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4557,7 +4756,7 @@
       <c r="D46" s="29"/>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47" s="30">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4567,7 +4766,7 @@
       <c r="D47" s="29"/>
       <c r="E47" s="28"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="A48" s="30">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4577,7 +4776,7 @@
       <c r="D48" s="29"/>
       <c r="E48" s="28"/>
     </row>
-    <row r="49" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="15.4" thickBot="1">
       <c r="A49" s="27">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4599,12 +4798,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F2228F-084D-481F-8FFF-171789E5F571}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F2228F-084D-481F-8FFF-171789E5F571}">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="16"/>
     <col min="3" max="3" width="46.25" style="16" bestFit="1" customWidth="1"/>
@@ -4618,16 +4819,16 @@
     <col min="11" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="16.5" customHeight="1"/>
+    <row r="3" spans="1:22" ht="15.4" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:22" ht="3.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:22" ht="3.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="3.95" customHeight="1" thickTop="1"/>
+    <row r="5" spans="1:22" ht="3.95" customHeight="1"/>
+    <row r="6" spans="1:22">
       <c r="A6" s="40" t="s">
         <v>70</v>
       </c>
@@ -4661,7 +4862,7 @@
       <c r="U6" s="46"/>
       <c r="V6" s="46"/>
     </row>
-    <row r="7" spans="1:22" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="60">
       <c r="A7" s="29">
         <f t="shared" ref="A7:A49" si="0">ROW()-6</f>
         <v>1</v>
@@ -4681,16 +4882,18 @@
       <c r="F7" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="38">
-        <v>43615</v>
-      </c>
-      <c r="H7" s="29"/>
+      <c r="G7" s="49">
+        <v>43646</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>90</v>
+      </c>
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
       <c r="U7" s="37"/>
       <c r="V7" s="36"/>
     </row>
-    <row r="8" spans="1:22" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="30">
       <c r="A8" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4710,8 +4913,8 @@
       <c r="F8" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="38">
-        <v>43615</v>
+      <c r="G8" s="49">
+        <v>43646</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
@@ -4719,7 +4922,7 @@
       <c r="U8" s="37"/>
       <c r="V8" s="36"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9" s="29">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4736,7 +4939,7 @@
       <c r="U9" s="37"/>
       <c r="V9" s="36"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10" s="29">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4751,7 +4954,7 @@
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="A11" s="29">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4766,7 +4969,7 @@
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="A12" s="29">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4781,7 +4984,7 @@
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="A13" s="29">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4796,7 +4999,7 @@
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22">
       <c r="A14" s="29">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4811,7 +5014,7 @@
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22">
       <c r="A15" s="29">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4826,7 +5029,7 @@
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22">
       <c r="A16" s="29">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4841,7 +5044,7 @@
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17" s="29">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4856,7 +5059,7 @@
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18" s="29">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4871,7 +5074,7 @@
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19" s="29">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4886,7 +5089,7 @@
       <c r="I19" s="29"/>
       <c r="J19" s="29"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20" s="29">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4901,7 +5104,7 @@
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21" s="29">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4916,7 +5119,7 @@
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22" s="29">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4931,7 +5134,7 @@
       <c r="I22" s="29"/>
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23" s="29">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4946,7 +5149,7 @@
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24" s="29">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4961,7 +5164,7 @@
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="A25" s="29">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4976,7 +5179,7 @@
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="A26" s="29">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4991,7 +5194,7 @@
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="A27" s="29">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5006,7 +5209,7 @@
       <c r="I27" s="29"/>
       <c r="J27" s="29"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="A28" s="29">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5021,7 +5224,7 @@
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10">
       <c r="A29" s="29">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5036,7 +5239,7 @@
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10">
       <c r="A30" s="29">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5051,7 +5254,7 @@
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10">
       <c r="A31" s="29">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5066,7 +5269,7 @@
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10">
       <c r="A32" s="29">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5081,7 +5284,7 @@
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10">
       <c r="A33" s="29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5096,7 +5299,7 @@
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10">
       <c r="A34" s="29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5111,7 +5314,7 @@
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10">
       <c r="A35" s="29">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5126,7 +5329,7 @@
       <c r="I35" s="29"/>
       <c r="J35" s="29"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10">
       <c r="A36" s="29">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5141,7 +5344,7 @@
       <c r="I36" s="29"/>
       <c r="J36" s="29"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10">
       <c r="A37" s="29">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5156,7 +5359,7 @@
       <c r="I37" s="29"/>
       <c r="J37" s="29"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10">
       <c r="A38" s="29">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5171,7 +5374,7 @@
       <c r="I38" s="29"/>
       <c r="J38" s="29"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10">
       <c r="A39" s="29">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5186,7 +5389,7 @@
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10">
       <c r="A40" s="29">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5201,7 +5404,7 @@
       <c r="I40" s="29"/>
       <c r="J40" s="29"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10">
       <c r="A41" s="29">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5216,7 +5419,7 @@
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10">
       <c r="A42" s="29">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5231,7 +5434,7 @@
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10">
       <c r="A43" s="29">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5246,7 +5449,7 @@
       <c r="I43" s="29"/>
       <c r="J43" s="29"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10">
       <c r="A44" s="29">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5261,7 +5464,7 @@
       <c r="I44" s="29"/>
       <c r="J44" s="29"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10">
       <c r="A45" s="29">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5276,7 +5479,7 @@
       <c r="I45" s="29"/>
       <c r="J45" s="29"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10">
       <c r="A46" s="29">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5291,7 +5494,7 @@
       <c r="I46" s="29"/>
       <c r="J46" s="29"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10">
       <c r="A47" s="29">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5306,7 +5509,7 @@
       <c r="I47" s="29"/>
       <c r="J47" s="29"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10">
       <c r="A48" s="29">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5321,7 +5524,7 @@
       <c r="I48" s="29"/>
       <c r="J48" s="29"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10">
       <c r="A49" s="29">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5348,5 +5551,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/00_ProjectManagement/WeeklyMeetingManagement.xlsx
+++ b/00_ProjectManagement/WeeklyMeetingManagement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fecon\Desktop\起業検討\forAnotherStart\forAnotherStart\00_ProjectManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5953EFD9-A449-4CB1-9D12-061866FB29D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC73BB6D-A0FC-4119-B27F-98BE8F3A60FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1230" windowWidth="13680" windowHeight="11400" firstSheet="1" activeTab="4" xr2:uid="{BA6488D4-8EEF-45B5-B610-A749BA160C5C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{BA6488D4-8EEF-45B5-B610-A749BA160C5C}"/>
   </bookViews>
   <sheets>
     <sheet name="【Schedule】Schedule_Summary" sheetId="3" r:id="rId1"/>
@@ -176,42 +176,6 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>福田純也</author>
-  </authors>
-  <commentList>
-    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{6E699565-76D5-4530-BB8F-44CD307D6576}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>福田純也:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-自分が書く</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="91">
   <si>
@@ -769,15 +733,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019/6/12
+    <t xml:space="preserve">2019/6/12
 kang なるはやでシェアの割合を決めたい
 2019/6/12
-F,S　</t>
+F,S　部門やポジションが定まった後、それぞれが経験や知識をもとにどのポジションで活躍し、成果が出せるか議論しシェアを決めたい。
+シェア決定のタイミングとしては起業決定の前を想定。
+</t>
     <rPh sb="24" eb="26">
       <t>わりあい</t>
     </rPh>
     <rPh sb="27" eb="28">
       <t>き</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ぶもん</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>さだ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>あと</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>けいけん</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ちしき</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>かつやく</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>せいか</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>だ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ぎろん</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>き</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>けってい</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>きぎょう</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>けってい</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>まえ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>そうてい</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1343,6 +1354,15 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1360,15 +1380,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1417,7 +1428,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="【Schedule】Master_Schedule!$C$5:$M$10" spid="_x0000_s3145"/>
+                  <a14:cameraTool cellRange="【Schedule】Master_Schedule!$C$5:$M$10" spid="_x0000_s3151"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1482,7 +1493,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="【Schedule】起業検討フェーズ!$B$6:$J$21" spid="_x0000_s3146"/>
+                  <a14:cameraTool cellRange="【Schedule】起業検討フェーズ!$B$6:$J$21" spid="_x0000_s3152"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2811,15 +2822,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>138110</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:colOff>104773</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>376238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>138111</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>404813</xdr:rowOff>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>338138</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2834,7 +2845,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5776910" y="4986338"/>
+          <a:off x="5743573" y="5795963"/>
           <a:ext cx="1524001" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
@@ -2908,7 +2919,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$T$6:$U$9" spid="_x0000_s6160"/>
+                  <a14:cameraTool cellRange="$T$6:$U$9" spid="_x0000_s6163"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3247,7 +3258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F62F287-69F1-401F-A386-B49ECCA9E99F}">
   <dimension ref="B3:C13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <sheetData>
@@ -3278,9 +3289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D99020-31E2-4549-BB5B-02BB32777B4F}">
   <dimension ref="B3:M19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3295,21 +3304,21 @@
     </row>
     <row r="4" spans="2:13" ht="15.75" thickTop="1" thickBot="1"/>
     <row r="5" spans="2:13">
-      <c r="C5" s="41">
+      <c r="C5" s="44">
         <v>2019</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45">
         <v>2020</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="43"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" ht="15.4" thickBot="1">
       <c r="C6" s="3">
@@ -3422,9 +3431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B29966-129E-418A-AD6F-D27B591840DF}">
   <dimension ref="B4:AK28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="V11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ22" sqref="AJ22"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4167,9 +4174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB23BA5-67C9-47C9-B73E-4BCD5EEF1E81}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="83" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="83" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4205,10 +4210,10 @@
       <c r="E6" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="T6" s="44" t="s">
+      <c r="T6" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="U6" s="45"/>
+      <c r="U6" s="48"/>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="30">
@@ -4629,7 +4634,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="41" t="s">
         <v>87</v>
       </c>
       <c r="C35" s="29"/>
@@ -4643,7 +4648,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="42" t="s">
         <v>88</v>
       </c>
       <c r="C36" s="29"/>
@@ -4657,7 +4662,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="42" t="s">
         <v>89</v>
       </c>
       <c r="C37" s="29"/>
@@ -4798,12 +4803,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F2228F-084D-481F-8FFF-171789E5F571}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F2228F-084D-481F-8FFF-171789E5F571}">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4859,10 +4862,10 @@
       <c r="J6" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-    </row>
-    <row r="7" spans="1:22" ht="60">
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+    </row>
+    <row r="7" spans="1:22" ht="105">
       <c r="A7" s="29">
         <f t="shared" ref="A7:A49" si="0">ROW()-6</f>
         <v>1</v>
@@ -4882,7 +4885,7 @@
       <c r="F7" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="43">
         <v>43646</v>
       </c>
       <c r="H7" s="39" t="s">
@@ -4913,7 +4916,7 @@
       <c r="F8" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="43">
         <v>43646</v>
       </c>
       <c r="H8" s="29"/>
@@ -5551,6 +5554,5 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>